--- a/tests/excel_optical_data/optical_data_missing_well_name.xlsx
+++ b/tests/excel_optical_data/optical_data_missing_well_name.xlsx
@@ -53,9 +53,6 @@
     <t>Do twitches point upward? (y/n)</t>
   </si>
   <si>
-    <t>Sampling Period / Frame rate of camera (in seconds)</t>
-  </si>
-  <si>
     <t>Timestamp of when recording began (use YYYY-MM-DD HH:MM format)</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Interpolation Value (In seconds) (This will resample data at a new period. If left blank, data will not be interpolated)</t>
+  </si>
+  <si>
+    <t>Sampling Rate / Frame rate of camera (in Hz)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="E1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
   <sheetData>
     <row r="1" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -516,12 +516,12 @@
         <v>44116.194444444445</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="5" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E5" s="6">
-        <v>1.6666E-2</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.2">
@@ -545,16 +545,16 @@
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
